--- a/Features_Target_Description.xlsx
+++ b/Features_Target_Description.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohu1\Desktop\CampusX_10_Apr\Credit_risk_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Credit_Risk_ML_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7A58B0-C8BE-4BAD-8B91-DDBD875EDAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44E11C7C-CFD1-48A0-B76E-830F67C6A527}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Total_TL</t>
   </si>
@@ -185,12 +184,6 @@
     <t>Age of newest opened account</t>
   </si>
   <si>
-    <t>Case_study1 table</t>
-  </si>
-  <si>
-    <t>Case study2 Table</t>
-  </si>
-  <si>
     <t>time_since_recent_payment</t>
   </si>
   <si>
@@ -557,20 +550,44 @@
     <t>Priority levels</t>
   </si>
   <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cibil </t>
-  </si>
-  <si>
-    <t>External</t>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>First Priority Customer</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Second Priority Customer</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Third Priority Customer</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Internal Product:</t>
+  </si>
+  <si>
+    <t>Cibil Dataset:</t>
+  </si>
+  <si>
+    <t>Approved_Flag:</t>
+  </si>
+  <si>
+    <t>Fourth Priority Customer (Least Priority)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,13 +603,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -604,15 +641,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3BA78E-D810-4F1B-AEF3-3B5DD818ACD4}">
-  <dimension ref="A1:C93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,20 +979,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
+      <c r="A1" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1177,559 +1215,555 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
+      <c r="A28" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,19 +1772,41 @@
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="A91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
